--- a/other/STT-RAM-Metrics.xlsx
+++ b/other/STT-RAM-Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="11055" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11389942454376302"/>
-          <c:y val="5.212453615711829E-2"/>
-          <c:w val="0.83550020786408807"/>
-          <c:h val="0.77094636057816712"/>
+          <c:x val="0.11389942454376301"/>
+          <c:y val="5.2124536157118331E-2"/>
+          <c:w val="0.83550020786408841"/>
+          <c:h val="0.77094636057816746"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -493,12 +493,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="48977408"/>
-        <c:axId val="48975872"/>
+        <c:axId val="67068672"/>
+        <c:axId val="67076480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48977408"/>
+        <c:axId val="67068672"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -522,17 +521,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48975872"/>
+        <c:crossAx val="67076480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48975872"/>
+        <c:axId val="67076480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -563,7 +561,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -573,7 +570,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="48977408"/>
+        <c:crossAx val="67068672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -584,9 +581,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.3583724569640064E-2"/>
-          <c:y val="9.4258665942619224E-2"/>
-          <c:w val="0.66472613458528951"/>
+          <c:x val="5.3583724569640084E-2"/>
+          <c:y val="9.4258665942619321E-2"/>
+          <c:w val="0.66472613458528995"/>
           <c:h val="0.2321723232871753"/>
         </c:manualLayout>
       </c:layout>
@@ -605,7 +602,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -626,7 +623,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947898"/>
+          <c:h val="0.77049939943947965"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1012,11 +1009,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="165100928"/>
-        <c:axId val="165320192"/>
+        <c:axId val="104970112"/>
+        <c:axId val="104973824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165100928"/>
+        <c:axId val="104970112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1044,13 +1041,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165320192"/>
+        <c:crossAx val="104973824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165320192"/>
+        <c:axId val="104973824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1079,7 +1076,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165100928"/>
+        <c:crossAx val="104970112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -1091,10 +1088,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14141459590278485"/>
+          <c:x val="0.14141459590278491"/>
           <c:y val="9.2892839404204494E-2"/>
-          <c:w val="0.63690166001977022"/>
-          <c:h val="0.22826898361842743"/>
+          <c:w val="0.63690166001977089"/>
+          <c:h val="0.22826898361842751"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1117,7 +1114,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1135,10 +1132,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15430118110236221"/>
+          <c:x val="0.15430118110236243"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.80727006780402455"/>
-          <c:h val="0.77049939943947898"/>
+          <c:h val="0.77049939943947965"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1524,11 +1521,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="133397504"/>
-        <c:axId val="160318592"/>
+        <c:axId val="105434496"/>
+        <c:axId val="105478400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133397504"/>
+        <c:axId val="105434496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1556,13 +1553,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160318592"/>
+        <c:crossAx val="105478400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160318592"/>
+        <c:axId val="105478400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="130"/>
@@ -1591,7 +1588,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133397504"/>
+        <c:crossAx val="105434496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -1603,10 +1600,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808141629355211"/>
+          <c:x val="0.35808141629355228"/>
           <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494799"/>
-          <c:h val="0.22826898361842743"/>
+          <c:w val="0.59480200011494766"/>
+          <c:h val="0.22826898361842751"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1629,7 +1626,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1648,7 +1645,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15435627541375982"/>
-          <c:y val="4.242175299035747E-2"/>
+          <c:y val="4.2421752990357456E-2"/>
           <c:w val="0.80741408619259381"/>
           <c:h val="0.77947814824424533"/>
         </c:manualLayout>
@@ -2036,11 +2033,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="166562048"/>
-        <c:axId val="166804864"/>
+        <c:axId val="107215104"/>
+        <c:axId val="109359488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166562048"/>
+        <c:axId val="107215104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2068,13 +2065,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166804864"/>
+        <c:crossAx val="109359488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166804864"/>
+        <c:axId val="109359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2103,7 +2100,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166562048"/>
+        <c:crossAx val="107215104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -2115,10 +2112,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36654128078549769"/>
-          <c:y val="3.0441941570758656E-2"/>
-          <c:w val="0.59480200011494777"/>
-          <c:h val="0.22826898361842748"/>
+          <c:x val="0.3665412807854978"/>
+          <c:y val="3.0441941570758673E-2"/>
+          <c:w val="0.59480200011494744"/>
+          <c:h val="0.22826898361842757"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2141,7 +2138,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2159,10 +2156,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14377430569869865"/>
+          <c:x val="0.1437743056986987"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.81759574555798331"/>
-          <c:h val="0.77049939943947898"/>
+          <c:h val="0.77049939943947965"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2548,11 +2545,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="165111296"/>
-        <c:axId val="165113216"/>
+        <c:axId val="109541248"/>
+        <c:axId val="110739456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165111296"/>
+        <c:axId val="109541248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2580,13 +2577,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165113216"/>
+        <c:crossAx val="110739456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165113216"/>
+        <c:axId val="110739456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2623,7 +2620,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165111296"/>
+        <c:crossAx val="109541248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2635,10 +2632,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26085903324584425"/>
-          <c:y val="0.15896612261215692"/>
-          <c:w val="0.59480200011494799"/>
-          <c:h val="0.24592897742086875"/>
+          <c:x val="0.26085903324584447"/>
+          <c:y val="0.15896612261215701"/>
+          <c:w val="0.59480200011494766"/>
+          <c:h val="0.24592897742086883"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2661,7 +2658,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2681,8 +2678,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.8350478653936374"/>
-          <c:h val="0.77049939943947687"/>
+          <c:w val="0.83504786539363762"/>
+          <c:h val="0.77049939943947754"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3068,12 +3065,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="154311680"/>
-        <c:axId val="154310144"/>
+        <c:axId val="67383296"/>
+        <c:axId val="67385216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154311680"/>
+        <c:axId val="67383296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3096,18 +3092,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154310144"/>
+        <c:crossAx val="67385216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154310144"/>
+        <c:axId val="67385216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3138,12 +3133,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154311680"/>
+        <c:crossAx val="67383296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3154,10 +3148,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808141629355156"/>
-          <c:y val="6.5515014013078868E-2"/>
-          <c:w val="0.5948020001149491"/>
-          <c:h val="0.22826898361842701"/>
+          <c:x val="0.35808141629355172"/>
+          <c:y val="6.5515014013078909E-2"/>
+          <c:w val="0.59480200011494877"/>
+          <c:h val="0.22826898361842712"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -3175,7 +3169,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3196,7 +3190,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947821"/>
+          <c:h val="0.77049939943947876"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3582,11 +3576,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="158668288"/>
-        <c:axId val="161197056"/>
+        <c:axId val="67495808"/>
+        <c:axId val="68510080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158668288"/>
+        <c:axId val="67495808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3614,13 +3608,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161197056"/>
+        <c:crossAx val="68510080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161197056"/>
+        <c:axId val="68510080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3649,7 +3643,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158668288"/>
+        <c:crossAx val="67495808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3661,10 +3655,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808141629355189"/>
+          <c:x val="0.35808141629355206"/>
           <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494844"/>
-          <c:h val="0.22826898361842726"/>
+          <c:w val="0.5948020001149481"/>
+          <c:h val="0.22826898361842737"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -3687,7 +3681,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3708,7 +3702,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947865"/>
+          <c:h val="0.7704993994394792"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4094,11 +4088,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="165389824"/>
-        <c:axId val="165391744"/>
+        <c:axId val="68678784"/>
+        <c:axId val="68952064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165389824"/>
+        <c:axId val="68678784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4126,13 +4120,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165391744"/>
+        <c:crossAx val="68952064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165391744"/>
+        <c:axId val="68952064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -4161,7 +4155,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165389824"/>
+        <c:crossAx val="68678784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4173,10 +4167,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14141469816272967"/>
-          <c:y val="9.3292869641294837E-2"/>
+          <c:x val="0.14141469816272986"/>
+          <c:y val="9.329286964129492E-2"/>
           <c:w val="0.5364687226596675"/>
-          <c:h val="0.22826898361842732"/>
+          <c:h val="0.22826898361842746"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -4199,7 +4193,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4220,7 +4214,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947865"/>
+          <c:h val="0.7704993994394792"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4606,11 +4600,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="167767040"/>
-        <c:axId val="167773312"/>
+        <c:axId val="73929472"/>
+        <c:axId val="73957760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167767040"/>
+        <c:axId val="73929472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4638,13 +4632,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167773312"/>
+        <c:crossAx val="73957760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167773312"/>
+        <c:axId val="73957760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="130"/>
@@ -4673,7 +4667,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167767040"/>
+        <c:crossAx val="73929472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -4685,10 +4679,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.358081416293552"/>
+          <c:x val="0.35808141629355217"/>
           <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494821"/>
-          <c:h val="0.22826898361842732"/>
+          <c:w val="0.59480200011494788"/>
+          <c:h val="0.22826898361842746"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -4711,7 +4705,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4732,7 +4726,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947898"/>
+          <c:h val="0.77049939943947965"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5118,11 +5112,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="165208064"/>
-        <c:axId val="165209984"/>
+        <c:axId val="88708992"/>
+        <c:axId val="89905792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165208064"/>
+        <c:axId val="88708992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5150,20 +5144,20 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.42346391076115486"/>
-              <c:y val="0.90699074074074071"/>
+              <c:y val="0.90699074074074049"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165209984"/>
+        <c:crossAx val="89905792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165209984"/>
+        <c:axId val="89905792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -5192,7 +5186,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165208064"/>
+        <c:crossAx val="88708992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -5204,10 +5198,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33863692038495186"/>
-          <c:y val="9.3292869641294837E-2"/>
-          <c:w val="0.59480200011494799"/>
-          <c:h val="0.22826898361842743"/>
+          <c:x val="0.33863692038495219"/>
+          <c:y val="9.329286964129492E-2"/>
+          <c:w val="0.59480200011494766"/>
+          <c:h val="0.22826898361842751"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -5230,7 +5224,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5251,7 +5245,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947865"/>
+          <c:h val="0.7704993994394792"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5637,11 +5631,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="167732352"/>
-        <c:axId val="167830272"/>
+        <c:axId val="97649792"/>
+        <c:axId val="98816000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167732352"/>
+        <c:axId val="97649792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5669,13 +5663,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167830272"/>
+        <c:crossAx val="98816000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167830272"/>
+        <c:axId val="98816000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5712,7 +5706,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167732352"/>
+        <c:crossAx val="97649792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -5724,10 +5718,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808136482939634"/>
-          <c:y val="0.17662620297462817"/>
-          <c:w val="0.59480200011494821"/>
-          <c:h val="0.22826898361842732"/>
+          <c:x val="0.35808136482939651"/>
+          <c:y val="0.17662620297462819"/>
+          <c:w val="0.59480200011494788"/>
+          <c:h val="0.22826898361842746"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -5750,7 +5744,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5771,7 +5765,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947732"/>
+          <c:h val="0.77049939943947798"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6157,11 +6151,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="158642944"/>
-        <c:axId val="158645632"/>
+        <c:axId val="98872704"/>
+        <c:axId val="98899456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158642944"/>
+        <c:axId val="98872704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6189,13 +6183,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158645632"/>
+        <c:crossAx val="98899456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158645632"/>
+        <c:axId val="98899456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6231,7 +6225,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158642944"/>
+        <c:crossAx val="98872704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6242,10 +6236,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808141629355167"/>
-          <c:y val="6.5515014013078895E-2"/>
-          <c:w val="0.59480200011494888"/>
-          <c:h val="0.22826898361842707"/>
+          <c:x val="0.35808141629355184"/>
+          <c:y val="6.5515014013078923E-2"/>
+          <c:w val="0.59480200011494855"/>
+          <c:h val="0.22826898361842723"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -6268,7 +6262,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6286,10 +6280,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15079213009600953"/>
+          <c:x val="0.1507921300960097"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.81067878264564186"/>
-          <c:h val="0.77049939943947776"/>
+          <c:w val="0.81067878264564219"/>
+          <c:h val="0.77049939943947843"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6675,11 +6669,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="161776768"/>
-        <c:axId val="161979008"/>
+        <c:axId val="103204352"/>
+        <c:axId val="103211392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161776768"/>
+        <c:axId val="103204352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6707,13 +6701,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161979008"/>
+        <c:crossAx val="103211392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161979008"/>
+        <c:axId val="103211392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6742,7 +6736,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161776768"/>
+        <c:crossAx val="103204352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -6754,10 +6748,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808141629355178"/>
+          <c:x val="0.35808141629355195"/>
           <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494866"/>
-          <c:h val="0.22826898361842718"/>
+          <c:w val="0.59480200011494833"/>
+          <c:h val="0.22826898361842729"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -6780,7 +6774,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7067,14 +7061,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7127,14 +7121,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7157,14 +7151,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7173,7 +7167,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5629275" y="3762375"/>
+          <a:off x="5629275" y="3981450"/>
           <a:ext cx="142875" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7221,14 +7215,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7250,15 +7244,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7267,7 +7261,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5038725" y="5029200"/>
+          <a:off x="5048250" y="5257800"/>
           <a:ext cx="142875" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7306,6 +7300,354 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="2762250"/>
+          <a:ext cx="390525" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>(a)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="2762250"/>
+          <a:ext cx="390525" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>(b)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124950" y="2762250"/>
+          <a:ext cx="390525" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>(c)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="5838825"/>
+          <a:ext cx="390525" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>(d)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="5848350"/>
+          <a:ext cx="390525" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>(e)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124950" y="5838825"/>
+          <a:ext cx="390525" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>(f)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7601,7 +7943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -8800,14 +9142,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/other/STT-RAM-Metrics.xlsx
+++ b/other/STT-RAM-Metrics.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="11055"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="11055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>Write Pulse (ns)</t>
   </si>
@@ -46,6 +49,39 @@
   </si>
   <si>
     <t>Leakage Power (W)</t>
+  </si>
+  <si>
+    <t>16KB</t>
+  </si>
+  <si>
+    <t>32KB</t>
+  </si>
+  <si>
+    <t>64KB</t>
+  </si>
+  <si>
+    <t>128KB</t>
+  </si>
+  <si>
+    <t>256KB</t>
+  </si>
+  <si>
+    <t>512KB</t>
+  </si>
+  <si>
+    <t>1MB</t>
+  </si>
+  <si>
+    <t>2MB</t>
+  </si>
+  <si>
+    <t>4MB</t>
+  </si>
+  <si>
+    <t>Minimum Write Energy</t>
+  </si>
+  <si>
+    <t>Minimum Write Latency</t>
   </si>
 </sst>
 </file>
@@ -105,9 +141,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11389942454376301"/>
-          <c:y val="5.2124536157118331E-2"/>
-          <c:w val="0.83550020786408841"/>
-          <c:h val="0.77094636057816746"/>
+          <c:y val="5.2124536157118352E-2"/>
+          <c:w val="0.83550020786408863"/>
+          <c:h val="0.77094636057816779"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -493,11 +529,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67068672"/>
-        <c:axId val="67076480"/>
+        <c:axId val="63904768"/>
+        <c:axId val="65196032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67068672"/>
+        <c:axId val="63904768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -525,12 +561,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67076480"/>
+        <c:crossAx val="65196032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67076480"/>
+        <c:axId val="65196032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -570,7 +606,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67068672"/>
+        <c:crossAx val="63904768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -582,8 +618,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.3583724569640084E-2"/>
-          <c:y val="9.4258665942619321E-2"/>
-          <c:w val="0.66472613458528995"/>
+          <c:y val="9.4258665942619391E-2"/>
+          <c:w val="0.66472613458529028"/>
           <c:h val="0.2321723232871753"/>
         </c:manualLayout>
       </c:layout>
@@ -602,7 +638,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -623,7 +659,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947965"/>
+          <c:h val="0.77049939943947998"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1009,11 +1045,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="104970112"/>
-        <c:axId val="104973824"/>
+        <c:axId val="165488512"/>
+        <c:axId val="165568512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104970112"/>
+        <c:axId val="165488512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1041,13 +1077,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104973824"/>
+        <c:crossAx val="165568512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104973824"/>
+        <c:axId val="165568512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1076,7 +1112,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104970112"/>
+        <c:crossAx val="165488512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -1090,8 +1126,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.14141459590278491"/>
           <c:y val="9.2892839404204494E-2"/>
-          <c:w val="0.63690166001977089"/>
-          <c:h val="0.22826898361842751"/>
+          <c:w val="0.63690166001977133"/>
+          <c:h val="0.22826898361842757"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1114,7 +1150,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1132,10 +1168,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15430118110236243"/>
+          <c:x val="0.15430118110236254"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.80727006780402455"/>
-          <c:h val="0.77049939943947965"/>
+          <c:h val="0.77049939943947998"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1521,11 +1557,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="105434496"/>
-        <c:axId val="105478400"/>
+        <c:axId val="165956224"/>
+        <c:axId val="165987840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105434496"/>
+        <c:axId val="165956224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1553,13 +1589,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105478400"/>
+        <c:crossAx val="165987840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105478400"/>
+        <c:axId val="165987840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="130"/>
@@ -1588,7 +1624,3435 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105434496"/>
+        <c:crossAx val="165956224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35808141629355239"/>
+          <c:y val="6.5515014013078923E-2"/>
+          <c:w val="0.59480200011494744"/>
+          <c:h val="0.22826898361842757"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15435627541375982"/>
+          <c:y val="4.2421752990357456E-2"/>
+          <c:w val="0.80741408619259381"/>
+          <c:h val="0.77947814824424533"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>148.02699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.67100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104.896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107.806</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110.878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>114.47799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>118.352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>82.343999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.896000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.125999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.694000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.555999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.545999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.201999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.454000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="168001536"/>
+        <c:axId val="168003456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="168001536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Pulse Width (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168003456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="168003456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Energy (pJ)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168001536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3665412807854978"/>
+          <c:y val="3.044194157075869E-2"/>
+          <c:w val="0.59480200011494722"/>
+          <c:h val="0.22826898361842768"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1437743056986987"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.81759574555798331"/>
+          <c:h val="0.77049939943947998"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$P$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>1.2956665000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.124441</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0348554999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0073799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95773550000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92854600000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90371199999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88487450000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87221100000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$P$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.0241085000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97116000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83999900000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71439300000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65787750000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56030600000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40928350000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32081200000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26457900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26315850000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26173550000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26031150000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25888600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.257461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$P$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="179150848"/>
+        <c:axId val="179153536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="179150848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Pulse Width (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179153536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="179153536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Leakage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Power </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>(W)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179150848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26085903324584464"/>
+          <c:y val="0.15896612261215706"/>
+          <c:w val="0.59480200011494744"/>
+          <c:h val="0.24592897742086889"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.81685870516185477"/>
+          <c:h val="0.68311193658932201"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Write!$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Write!$B$84:$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512KB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1MB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2MB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Write!$C$84:$C$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Write!$D$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Write!$B$84:$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512KB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1MB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2MB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Write!$D$84:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="140175616"/>
+        <c:axId val="152302720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140175616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>STT-RAM Macro Capacity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.31270252235419732"/>
+              <c:y val="0.91130242825607066"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152302720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="152302720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" baseline="0"/>
+                  <a:t>τ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="-25000"/>
+                  <a:t>min_enery</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>(ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140175616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12865252012989897"/>
+          <c:y val="6.8676713424067018E-2"/>
+          <c:w val="0.56322033898305079"/>
+          <c:h val="0.21338478385566048"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.83504786539363762"/>
+          <c:h val="0.77049939943947798"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>8.2416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8356500000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9975499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6788000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4356999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3081999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2129999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1424500000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0956999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.5891500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7149000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4573499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2678000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4447000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2758499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25885</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2418500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2257</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2095499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1933999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="68666112"/>
+        <c:axId val="71613824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="68666112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Pulse Width (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71613824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="71613824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Area (mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68666112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35808141629355184"/>
+          <c:y val="6.5515014013078923E-2"/>
+          <c:w val="0.59480200011494855"/>
+          <c:h val="0.22826898361842723"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.83504786539363762"/>
+          <c:h val="0.7704993994394792"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>4.2935999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4748000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3056000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2552000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1927999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.1227999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72839999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60239999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56279999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53279999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52559999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51839999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50639999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="91034752"/>
+        <c:axId val="91500544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91034752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Pulse Width (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91500544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="91500544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Read Latency (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91034752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35808141629355217"/>
+          <c:y val="6.5515014013078923E-2"/>
+          <c:w val="0.59480200011494788"/>
+          <c:h val="0.22826898361842746"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.83504786539363762"/>
+          <c:h val="0.77049939943947965"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>4.6929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.423</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.859</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.7949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2170000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="94588928"/>
+        <c:axId val="94591232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94588928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Pulse Width (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94591232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94591232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Latency (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94588928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14141469816272997"/>
+          <c:y val="9.3292869641294976E-2"/>
+          <c:w val="0.5364687226596675"/>
+          <c:h val="0.22826898361842751"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.83504786539363762"/>
+          <c:h val="0.77049939943947965"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>128.35300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.379000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.355000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.680999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.391000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.287999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>84.748999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.465000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.709000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.003999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.564999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.307000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.651000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.204000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.911000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="94871936"/>
+        <c:axId val="94874624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94871936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Pulse Width (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94874624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94874624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="130"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Read Energy (pJ)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94871936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -1632,7 +5096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:style val="33"/>
@@ -1644,10 +5108,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15435627541375982"/>
-          <c:y val="4.2421752990357456E-2"/>
-          <c:w val="0.80741408619259381"/>
-          <c:h val="0.77947814824424533"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.83504786539363762"/>
+          <c:h val="0.77049939943947998"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1868,28 +5332,28 @@
                   <c:v>49.694000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.555999999999997</c:v>
+                  <c:v>46.555999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.545999999999999</c:v>
+                  <c:v>43.545999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.200000000000003</c:v>
+                  <c:v>40.950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.601999999999997</c:v>
+                  <c:v>39.201999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.043999999999997</c:v>
+                  <c:v>38.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.177999999999997</c:v>
+                  <c:v>37.777999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.228000000000002</c:v>
+                  <c:v>36.927999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.308999999999997</c:v>
+                  <c:v>38.009</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>39.362000000000002</c:v>
@@ -2033,11 +5497,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="107215104"/>
-        <c:axId val="109359488"/>
+        <c:axId val="114604288"/>
+        <c:axId val="117469952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107215104"/>
+        <c:axId val="114604288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2060,18 +5524,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42346391076115486"/>
+              <c:y val="0.90699074074074049"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109359488"/>
+        <c:crossAx val="117469952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109359488"/>
+        <c:axId val="117469952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2090,17 +5561,16 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Energy (pJ)</a:t>
+                  <a:t>Read Energy (pJ)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107215104"/>
+        <c:crossAx val="114604288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -2112,8 +5582,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3665412807854978"/>
-          <c:y val="3.0441941570758673E-2"/>
+          <c:x val="0.33863692038495247"/>
+          <c:y val="9.3292869641294976E-2"/>
           <c:w val="0.59480200011494744"/>
           <c:h val="0.22826898361842757"/>
         </c:manualLayout>
@@ -2144,7 +5614,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:style val="33"/>
@@ -2156,9 +5626,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1437743056986987"/>
+          <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.81759574555798331"/>
+          <c:w val="0.83504786539363762"/>
           <c:h val="0.77049939943947965"/>
         </c:manualLayout>
       </c:layout>
@@ -2545,11 +6015,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="109541248"/>
-        <c:axId val="110739456"/>
+        <c:axId val="128314368"/>
+        <c:axId val="139709056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109541248"/>
+        <c:axId val="128314368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2572,18 +6042,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110739456"/>
+        <c:crossAx val="139709056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110739456"/>
+        <c:axId val="139709056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2615,12 +6084,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109541248"/>
+        <c:crossAx val="128314368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2632,10 +6100,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26085903324584447"/>
-          <c:y val="0.15896612261215701"/>
+          <c:x val="0.35808136482939662"/>
+          <c:y val="0.17662620297462819"/>
           <c:w val="0.59480200011494766"/>
-          <c:h val="0.24592897742086883"/>
+          <c:h val="0.22826898361842751"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2664,7 +6132,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:style val="33"/>
@@ -2679,7 +6147,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947754"/>
+          <c:h val="0.77049939943947843"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3065,11 +6533,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67383296"/>
-        <c:axId val="67385216"/>
+        <c:axId val="164424320"/>
+        <c:axId val="164639488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67383296"/>
+        <c:axId val="164424320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3092,17 +6560,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67385216"/>
+        <c:crossAx val="164639488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67385216"/>
+        <c:axId val="164639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3133,11 +6602,12 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67383296"/>
+        <c:crossAx val="164424320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3148,10 +6618,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808141629355172"/>
-          <c:y val="6.5515014013078909E-2"/>
-          <c:w val="0.59480200011494877"/>
-          <c:h val="0.22826898361842712"/>
+          <c:x val="0.35808141629355195"/>
+          <c:y val="6.5515014013078923E-2"/>
+          <c:w val="0.59480200011494833"/>
+          <c:h val="0.22826898361842729"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -3167,15 +6637,20 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:style val="33"/>
@@ -3187,9 +6662,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
+          <c:x val="0.15079213009600981"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.83504786539363762"/>
+          <c:w val="0.81067878264564242"/>
           <c:h val="0.77049939943947876"/>
         </c:manualLayout>
       </c:layout>
@@ -3576,11 +7051,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67495808"/>
-        <c:axId val="68510080"/>
+        <c:axId val="165128064"/>
+        <c:axId val="165135872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67495808"/>
+        <c:axId val="165128064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3608,13 +7083,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68510080"/>
+        <c:crossAx val="165135872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68510080"/>
+        <c:axId val="165135872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3643,7 +7118,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67495808"/>
+        <c:crossAx val="165128064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3682,3099 +7157,6 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.83504786539363762"/>
-          <c:h val="0.7704993994394792"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$17:$P$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$18:$P$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="5">
-                  <c:v>4.6929999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.423</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0860000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.9020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.859</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.8239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.798</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.78</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$17:$P$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$19:$P$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.7949999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.403</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.323</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.2619999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.2320000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.2279999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.2249999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.2210000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.2170000000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.214</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$17:$P$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$20:$P$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.028</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="68678784"/>
-        <c:axId val="68952064"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="68678784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Pulse Width (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68952064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="68952064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="12"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Latency (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68678784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14141469816272986"/>
-          <c:y val="9.329286964129492E-2"/>
-          <c:w val="0.5364687226596675"/>
-          <c:h val="0.22826898361842746"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.83504786539363762"/>
-          <c:h val="0.7704993994394792"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$23:$P$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$24:$P$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="5">
-                  <c:v>128.35300000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>87.379000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75.355000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>71.125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68.680999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>66.391000000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>64.989999999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>63.966000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>63.287999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$23:$P$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$25:$P$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>84.748999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>69.465000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61.189</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.709000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.003999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44.564999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42.423999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.307000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36.103999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.651000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35.204000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34.765000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>34.332999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.911000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$23:$P$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$26:$P$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="73929472"/>
-        <c:axId val="73957760"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="73929472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Pulse Width (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73957760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="73957760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="130"/>
-          <c:min val="30"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Read Energy (pJ)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73929472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="20"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35808141629355217"/>
-          <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494788"/>
-          <c:h val="0.22826898361842746"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947965"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$29:$P$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$P$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="5">
-                  <c:v>148.02699999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>112.67100000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>104.896</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>103.798</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>104.58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>107.806</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110.878</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>114.47799999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>118.352</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$29:$P$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$31:$P$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>82.343999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62.896000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55.125999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.694000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.555999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>39.545999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34.601999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35.043999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36.177999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37.228000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>38.308999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>39.362000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40.454000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$29:$P$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$32:$P$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="88708992"/>
-        <c:axId val="89905792"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="88708992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Pulse Width (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.42346391076115486"/>
-              <c:y val="0.90699074074074049"/>
-            </c:manualLayout>
-          </c:layout>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89905792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="89905792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="150"/>
-          <c:min val="30"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Read Energy (pJ)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88708992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="20"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.33863692038495219"/>
-          <c:y val="9.329286964129492E-2"/>
-          <c:w val="0.59480200011494766"/>
-          <c:h val="0.22826898361842751"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.83504786539363762"/>
-          <c:h val="0.7704993994394792"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$35:$P$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$36:$P$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="5">
-                  <c:v>1.2956665000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.124441</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0348554999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0073799999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.95773550000000007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92854600000000009</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.90371199999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.88487450000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.87221100000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$35:$P$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$37:$P$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.0241085000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97116000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83999900000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71439300000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65787750000000011</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56030600000000008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40928350000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32081200000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26457900000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.26315850000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26173550000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.26031150000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.25888600000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.257461</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$35:$P$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$38:$P$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.87</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="97649792"/>
-        <c:axId val="98816000"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="97649792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Pulse Width (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98816000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98816000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="4"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Leakage</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> Power </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>(W)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97649792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35808136482939651"/>
-          <c:y val="0.17662620297462819"/>
-          <c:w val="0.59480200011494788"/>
-          <c:h val="0.22826898361842746"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947798"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="5">
-                  <c:v>8.2416</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.8356500000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9975499999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.6788000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.4356999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3081999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2129999999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.1424500000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.0956999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>4.5891500000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2673999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7149000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4573499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2678000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7802</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4447000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2758499999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.25885</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2418500000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2257</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2095499999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1933999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$7:$P$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="98872704"/>
-        <c:axId val="98899456"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="98872704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Pulse Width (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98899456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98899456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Area (mm</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="30000"/>
-                  <a:t>2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98872704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35808141629355184"/>
-          <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494855"/>
-          <c:h val="0.22826898361842723"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1507921300960097"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.81067878264564219"/>
-          <c:h val="0.77049939943947843"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$11:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$12:$P$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="5">
-                  <c:v>4.2935999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1936</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6379999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4748000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4172</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3056000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2552000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2167999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1927999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$11:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$13:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2.1227999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3475999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0944</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82320000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72839999999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61439999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60239999999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56279999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.53279999999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.52559999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.51839999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.51239999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.50639999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$11:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$14:$P$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.028</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="103204352"/>
-        <c:axId val="103211392"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="103204352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Pulse Width (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103211392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="103211392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Read Latency (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103204352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35808141629355195"/>
-          <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494833"/>
-          <c:h val="0.22826898361842729"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7243,16 +7625,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7261,7 +7643,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="5257800"/>
+          <a:off x="6229350" y="5200650"/>
           <a:ext cx="142875" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7656,6 +8038,186 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="16KB"/>
+      <sheetName val="32KB"/>
+      <sheetName val="64KB"/>
+      <sheetName val="128KB"/>
+      <sheetName val="256KB"/>
+      <sheetName val="512KB"/>
+      <sheetName val="1MB"/>
+      <sheetName val="2MB"/>
+      <sheetName val="4MB"/>
+      <sheetName val="8MB"/>
+      <sheetName val="16MB"/>
+      <sheetName val="Write"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="83">
+          <cell r="C83" t="str">
+            <v>In-plane STT-RAM</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>Perpendicular STT-RAM</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>16KB</v>
+          </cell>
+          <cell r="C84">
+            <v>2.7</v>
+          </cell>
+          <cell r="D84">
+            <v>3.1</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>32KB</v>
+          </cell>
+          <cell r="C85">
+            <v>3</v>
+          </cell>
+          <cell r="D85">
+            <v>3.5</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>64KB</v>
+          </cell>
+          <cell r="C86">
+            <v>3.8</v>
+          </cell>
+          <cell r="D86">
+            <v>4.5999999999999996</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>128KB</v>
+          </cell>
+          <cell r="C87">
+            <v>4.3</v>
+          </cell>
+          <cell r="D87">
+            <v>5.0999999999999996</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>256KB</v>
+          </cell>
+          <cell r="C88">
+            <v>4.5</v>
+          </cell>
+          <cell r="D88">
+            <v>5.5</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>512KB</v>
+          </cell>
+          <cell r="C89">
+            <v>5</v>
+          </cell>
+          <cell r="D89">
+            <v>5.9</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>1MB</v>
+          </cell>
+          <cell r="C90">
+            <v>5.0999999999999996</v>
+          </cell>
+          <cell r="D90">
+            <v>6.1</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>2MB</v>
+          </cell>
+          <cell r="C91">
+            <v>5.5</v>
+          </cell>
+          <cell r="D91">
+            <v>6.9</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>4MB</v>
+          </cell>
+          <cell r="C92">
+            <v>5.6</v>
+          </cell>
+          <cell r="D92">
+            <v>7.3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7943,8 +8505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8821,28 +9383,28 @@
         <v>49.694000000000003</v>
       </c>
       <c r="G31">
-        <v>45.555999999999997</v>
+        <v>46.555999999999997</v>
       </c>
       <c r="H31">
-        <v>39.545999999999999</v>
+        <v>43.545999999999999</v>
       </c>
       <c r="I31">
-        <v>34.200000000000003</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="J31">
-        <v>34.601999999999997</v>
+        <v>39.201999999999998</v>
       </c>
       <c r="K31">
-        <v>35.043999999999997</v>
+        <v>38.44</v>
       </c>
       <c r="L31">
-        <v>36.177999999999997</v>
+        <v>37.777999999999999</v>
       </c>
       <c r="M31">
-        <v>37.228000000000002</v>
+        <v>36.927999999999997</v>
       </c>
       <c r="N31">
-        <v>38.308999999999997</v>
+        <v>38.009</v>
       </c>
       <c r="O31">
         <v>39.362000000000002</v>
@@ -9143,7 +9705,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9156,12 +9718,216 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B4:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2.7</v>
+      </c>
+      <c r="D6">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>3.8</v>
+      </c>
+      <c r="D8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>4.3</v>
+      </c>
+      <c r="D9">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>4.5</v>
+      </c>
+      <c r="D10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D12">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>5.5</v>
+      </c>
+      <c r="D13">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>5.6</v>
+      </c>
+      <c r="D14">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>5.6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/other/STT-RAM-Metrics.xlsx
+++ b/other/STT-RAM-Metrics.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="11055" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="11055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Write Pulse (ns)</t>
   </si>
@@ -83,6 +84,27 @@
   <si>
     <t>Minimum Write Latency</t>
   </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Bigtable</t>
+  </si>
 </sst>
 </file>
 
@@ -141,9 +163,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11389942454376301"/>
-          <c:y val="5.2124536157118352E-2"/>
+          <c:y val="5.2124536157118366E-2"/>
           <c:w val="0.83550020786408863"/>
-          <c:h val="0.77094636057816779"/>
+          <c:h val="0.7709463605781679"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -529,11 +551,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="63904768"/>
-        <c:axId val="65196032"/>
+        <c:axId val="103923712"/>
+        <c:axId val="103926016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63904768"/>
+        <c:axId val="103923712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -561,12 +583,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65196032"/>
+        <c:crossAx val="103926016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65196032"/>
+        <c:axId val="103926016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -606,7 +628,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="63904768"/>
+        <c:crossAx val="103923712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -618,8 +640,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.3583724569640084E-2"/>
-          <c:y val="9.4258665942619391E-2"/>
-          <c:w val="0.66472613458529028"/>
+          <c:y val="9.4258665942619432E-2"/>
+          <c:w val="0.66472613458529051"/>
           <c:h val="0.2321723232871753"/>
         </c:manualLayout>
       </c:layout>
@@ -638,7 +660,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -659,7 +681,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947998"/>
+          <c:h val="0.7704993994394802"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1045,11 +1067,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="165488512"/>
-        <c:axId val="165568512"/>
+        <c:axId val="104572416"/>
+        <c:axId val="104574336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165488512"/>
+        <c:axId val="104572416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1072,18 +1094,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165568512"/>
+        <c:crossAx val="104574336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165568512"/>
+        <c:axId val="104574336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1107,12 +1128,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165488512"/>
+        <c:crossAx val="104572416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -1126,8 +1146,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.14141459590278491"/>
           <c:y val="9.2892839404204494E-2"/>
-          <c:w val="0.63690166001977133"/>
-          <c:h val="0.22826898361842757"/>
+          <c:w val="0.63690166001977155"/>
+          <c:h val="0.22826898361842762"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1150,7 +1170,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1168,10 +1188,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15430118110236254"/>
+          <c:x val="0.1543011811023626"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.80727006780402455"/>
-          <c:h val="0.77049939943947998"/>
+          <c:h val="0.7704993994394802"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1557,11 +1577,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="165956224"/>
-        <c:axId val="165987840"/>
+        <c:axId val="104608512"/>
+        <c:axId val="104610432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165956224"/>
+        <c:axId val="104608512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1584,18 +1604,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165987840"/>
+        <c:crossAx val="104610432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165987840"/>
+        <c:axId val="104610432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="130"/>
@@ -1619,12 +1638,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165956224"/>
+        <c:crossAx val="104608512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -1636,10 +1654,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808141629355239"/>
+          <c:x val="0.35808141629355245"/>
           <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494744"/>
-          <c:h val="0.22826898361842757"/>
+          <c:w val="0.59480200011494733"/>
+          <c:h val="0.22826898361842762"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1662,7 +1680,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2069,11 +2087,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="168001536"/>
-        <c:axId val="168003456"/>
+        <c:axId val="104643968"/>
+        <c:axId val="104666624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168001536"/>
+        <c:axId val="104643968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2096,18 +2114,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168003456"/>
+        <c:crossAx val="104666624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168003456"/>
+        <c:axId val="104666624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2131,12 +2148,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168001536"/>
+        <c:crossAx val="104643968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -2149,9 +2165,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.3665412807854978"/>
-          <c:y val="3.044194157075869E-2"/>
-          <c:w val="0.59480200011494722"/>
-          <c:h val="0.22826898361842768"/>
+          <c:y val="3.0441941570758697E-2"/>
+          <c:w val="0.5948020001149471"/>
+          <c:h val="0.22826898361842773"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2174,7 +2190,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2195,7 +2211,7 @@
           <c:x val="0.1437743056986987"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.81759574555798331"/>
-          <c:h val="0.77049939943947998"/>
+          <c:h val="0.7704993994394802"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2581,11 +2597,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179150848"/>
-        <c:axId val="179153536"/>
+        <c:axId val="104738176"/>
+        <c:axId val="104744448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179150848"/>
+        <c:axId val="104738176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2608,18 +2624,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179153536"/>
+        <c:crossAx val="104744448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179153536"/>
+        <c:axId val="104744448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2651,12 +2666,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179150848"/>
+        <c:crossAx val="104738176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2668,10 +2682,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26085903324584464"/>
-          <c:y val="0.15896612261215706"/>
-          <c:w val="0.59480200011494744"/>
-          <c:h val="0.24592897742086889"/>
+          <c:x val="0.26085903324584475"/>
+          <c:y val="0.15896612261215709"/>
+          <c:w val="0.59480200011494733"/>
+          <c:h val="0.24592897742086892"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2694,7 +2708,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2715,7 +2729,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.81685870516185477"/>
-          <c:h val="0.68311193658932201"/>
+          <c:h val="0.68311193658932212"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2922,11 +2936,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140175616"/>
-        <c:axId val="152302720"/>
+        <c:axId val="106911232"/>
+        <c:axId val="106926080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140175616"/>
+        <c:axId val="106911232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,14 +2982,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152302720"/>
+        <c:crossAx val="106926080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152302720"/>
+        <c:axId val="106926080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -3016,7 +3030,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140175616"/>
+        <c:crossAx val="106911232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3028,10 +3042,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12865252012989897"/>
+          <c:x val="0.12865252012989895"/>
           <c:y val="6.8676713424067018E-2"/>
           <c:w val="0.56322033898305079"/>
-          <c:h val="0.21338478385566048"/>
+          <c:h val="0.21338478385566051"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -3049,7 +3063,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3070,7 +3084,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947798"/>
+          <c:h val="0.77049939943947821"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3456,11 +3470,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="68666112"/>
-        <c:axId val="71613824"/>
+        <c:axId val="103759232"/>
+        <c:axId val="103773696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68666112"/>
+        <c:axId val="103759232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3487,13 +3501,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71613824"/>
+        <c:crossAx val="103773696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71613824"/>
+        <c:axId val="103773696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3528,7 +3542,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68666112"/>
+        <c:crossAx val="103759232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3539,10 +3553,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808141629355184"/>
+          <c:x val="0.35808141629355189"/>
           <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494855"/>
-          <c:h val="0.22826898361842723"/>
+          <c:w val="0.59480200011494844"/>
+          <c:h val="0.22826898361842726"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -3560,7 +3574,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3581,7 +3595,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.7704993994394792"/>
+          <c:h val="0.77049939943947943"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3967,11 +3981,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="91034752"/>
-        <c:axId val="91500544"/>
+        <c:axId val="103950976"/>
+        <c:axId val="103961344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91034752"/>
+        <c:axId val="103950976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3998,13 +4012,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91500544"/>
+        <c:crossAx val="103961344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91500544"/>
+        <c:axId val="103961344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -4032,7 +4046,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91034752"/>
+        <c:crossAx val="103950976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -4044,10 +4058,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808141629355217"/>
+          <c:x val="0.35808141629355222"/>
           <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494788"/>
-          <c:h val="0.22826898361842746"/>
+          <c:w val="0.59480200011494777"/>
+          <c:h val="0.22826898361842748"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -4070,7 +4084,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4091,7 +4105,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947965"/>
+          <c:h val="0.77049939943947976"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4477,11 +4491,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="94588928"/>
-        <c:axId val="94591232"/>
+        <c:axId val="103987072"/>
+        <c:axId val="103997440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94588928"/>
+        <c:axId val="103987072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4508,13 +4522,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94591232"/>
+        <c:crossAx val="103997440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94591232"/>
+        <c:axId val="103997440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -4542,7 +4556,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94588928"/>
+        <c:crossAx val="103987072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4554,10 +4568,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14141469816272997"/>
-          <c:y val="9.3292869641294976E-2"/>
+          <c:x val="0.14141469816273003"/>
+          <c:y val="9.3292869641295004E-2"/>
           <c:w val="0.5364687226596675"/>
-          <c:h val="0.22826898361842751"/>
+          <c:h val="0.22826898361842754"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -4580,7 +4594,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4601,7 +4615,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947965"/>
+          <c:h val="0.77049939943947976"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4987,11 +5001,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="94871936"/>
-        <c:axId val="94874624"/>
+        <c:axId val="104051840"/>
+        <c:axId val="104053760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94871936"/>
+        <c:axId val="104051840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5018,13 +5032,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94874624"/>
+        <c:crossAx val="104053760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94874624"/>
+        <c:axId val="104053760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="130"/>
@@ -5052,7 +5066,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94871936"/>
+        <c:crossAx val="104051840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -5064,10 +5078,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808141629355228"/>
+          <c:x val="0.35808141629355233"/>
           <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494766"/>
-          <c:h val="0.22826898361842751"/>
+          <c:w val="0.59480200011494755"/>
+          <c:h val="0.22826898361842754"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -5090,7 +5104,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5111,7 +5125,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947998"/>
+          <c:h val="0.7704993994394802"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5497,11 +5511,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="114604288"/>
-        <c:axId val="117469952"/>
+        <c:axId val="104079744"/>
+        <c:axId val="104081664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114604288"/>
+        <c:axId val="104079744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5536,13 +5550,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117469952"/>
+        <c:crossAx val="104081664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117469952"/>
+        <c:axId val="104081664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -5570,7 +5584,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114604288"/>
+        <c:crossAx val="104079744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -5582,10 +5596,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33863692038495247"/>
-          <c:y val="9.3292869641294976E-2"/>
-          <c:w val="0.59480200011494744"/>
-          <c:h val="0.22826898361842757"/>
+          <c:x val="0.33863692038495258"/>
+          <c:y val="9.3292869641295004E-2"/>
+          <c:w val="0.59480200011494733"/>
+          <c:h val="0.22826898361842762"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -5608,7 +5622,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5629,7 +5643,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947965"/>
+          <c:h val="0.77049939943947976"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6015,11 +6029,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="128314368"/>
-        <c:axId val="139709056"/>
+        <c:axId val="104123776"/>
+        <c:axId val="104134144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128314368"/>
+        <c:axId val="104123776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6046,13 +6060,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139709056"/>
+        <c:crossAx val="104134144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139709056"/>
+        <c:axId val="104134144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6088,7 +6102,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128314368"/>
+        <c:crossAx val="104123776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -6100,10 +6114,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808136482939662"/>
+          <c:x val="0.35808136482939668"/>
           <c:y val="0.17662620297462819"/>
-          <c:w val="0.59480200011494766"/>
-          <c:h val="0.22826898361842751"/>
+          <c:w val="0.59480200011494755"/>
+          <c:h val="0.22826898361842754"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -6126,7 +6140,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6147,7 +6161,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947843"/>
+          <c:h val="0.77049939943947865"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6533,11 +6547,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="164424320"/>
-        <c:axId val="164639488"/>
+        <c:axId val="104483456"/>
+        <c:axId val="104497920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164424320"/>
+        <c:axId val="104483456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6560,18 +6574,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164639488"/>
+        <c:crossAx val="104497920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164639488"/>
+        <c:axId val="104497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -6602,12 +6615,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164424320"/>
+        <c:crossAx val="104483456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6618,10 +6630,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808141629355195"/>
+          <c:x val="0.358081416293552"/>
           <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494833"/>
-          <c:h val="0.22826898361842729"/>
+          <c:w val="0.59480200011494821"/>
+          <c:h val="0.22826898361842732"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -6644,7 +6656,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6662,10 +6674,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15079213009600981"/>
+          <c:x val="0.15079213009600986"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.81067878264564242"/>
-          <c:h val="0.77049939943947876"/>
+          <c:w val="0.81067878264564253"/>
+          <c:h val="0.77049939943947898"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -7051,11 +7063,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="165128064"/>
-        <c:axId val="165135872"/>
+        <c:axId val="104527744"/>
+        <c:axId val="104542208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165128064"/>
+        <c:axId val="104527744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -7078,18 +7090,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165135872"/>
+        <c:crossAx val="104542208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165135872"/>
+        <c:axId val="104542208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -7113,12 +7124,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165128064"/>
+        <c:crossAx val="104527744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -7130,10 +7140,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35808141629355206"/>
+          <c:x val="0.35808141629355211"/>
           <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.5948020001149481"/>
-          <c:h val="0.22826898361842737"/>
+          <c:w val="0.59480200011494799"/>
+          <c:h val="0.22826898361842743"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -7156,7 +7166,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9720,7 +9730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -9930,4 +9940,182 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>3.06</v>
+      </c>
+      <c r="D4">
+        <v>10.7</v>
+      </c>
+      <c r="E4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F4">
+        <v>5.66</v>
+      </c>
+      <c r="G4">
+        <v>6.22</v>
+      </c>
+      <c r="H4">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>21.8</v>
+      </c>
+      <c r="D5">
+        <v>3.7</v>
+      </c>
+      <c r="E5">
+        <v>4.92</v>
+      </c>
+      <c r="F5">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="G5">
+        <v>9.57</v>
+      </c>
+      <c r="H5">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D6">
+        <v>13.9</v>
+      </c>
+      <c r="E6">
+        <v>4.01</v>
+      </c>
+      <c r="F6">
+        <v>15.9</v>
+      </c>
+      <c r="G6">
+        <v>11.3</v>
+      </c>
+      <c r="H6">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.316</v>
+      </c>
+      <c r="F7">
+        <v>0.105</v>
+      </c>
+      <c r="G7">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.309</v>
+      </c>
+      <c r="F8">
+        <v>0.193</v>
+      </c>
+      <c r="G8">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>1.01</v>
+      </c>
+      <c r="D9">
+        <v>3.53</v>
+      </c>
+      <c r="E9">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F9">
+        <v>1.85</v>
+      </c>
+      <c r="G9">
+        <v>1.92</v>
+      </c>
+      <c r="H9">
+        <v>0.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/other/STT-RAM-Metrics.xlsx
+++ b/other/STT-RAM-Metrics.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="11055" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="11055" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Write Pulse (ns)</t>
   </si>
@@ -82,9 +83,6 @@
     <t>Minimum Write Energy</t>
   </si>
   <si>
-    <t>Minimum Write Latency</t>
-  </si>
-  <si>
     <t>Area</t>
   </si>
   <si>
@@ -104,6 +102,24 @@
   </si>
   <si>
     <t>Bigtable</t>
+  </si>
+  <si>
+    <t>16bit</t>
+  </si>
+  <si>
+    <t>32bit</t>
+  </si>
+  <si>
+    <t>64bit</t>
+  </si>
+  <si>
+    <t>128bit</t>
+  </si>
+  <si>
+    <t>256bit</t>
+  </si>
+  <si>
+    <t>512bit</t>
   </si>
 </sst>
 </file>
@@ -163,9 +179,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11389942454376301"/>
-          <c:y val="5.2124536157118366E-2"/>
+          <c:y val="5.2124536157118428E-2"/>
           <c:w val="0.83550020786408863"/>
-          <c:h val="0.7709463605781679"/>
+          <c:h val="0.77094636057816834"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -551,11 +567,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="103923712"/>
-        <c:axId val="103926016"/>
+        <c:axId val="49867776"/>
+        <c:axId val="50743936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103923712"/>
+        <c:axId val="49867776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -583,12 +599,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103926016"/>
+        <c:crossAx val="50743936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103926016"/>
+        <c:axId val="50743936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -628,7 +644,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="103923712"/>
+        <c:crossAx val="49867776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -640,8 +656,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.3583724569640084E-2"/>
-          <c:y val="9.4258665942619432E-2"/>
-          <c:w val="0.66472613458529051"/>
+          <c:y val="9.4258665942619613E-2"/>
+          <c:w val="0.66472613458529106"/>
           <c:h val="0.2321723232871753"/>
         </c:manualLayout>
       </c:layout>
@@ -660,7 +676,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -681,7 +697,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.7704993994394802"/>
+          <c:h val="0.77049939943948098"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1067,11 +1083,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="104572416"/>
-        <c:axId val="104574336"/>
+        <c:axId val="50918912"/>
+        <c:axId val="50920832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104572416"/>
+        <c:axId val="50918912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1098,13 +1114,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104574336"/>
+        <c:crossAx val="50920832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104574336"/>
+        <c:axId val="50920832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1132,7 +1148,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104572416"/>
+        <c:crossAx val="50918912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -1146,8 +1162,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.14141459590278491"/>
           <c:y val="9.2892839404204494E-2"/>
-          <c:w val="0.63690166001977155"/>
-          <c:h val="0.22826898361842762"/>
+          <c:w val="0.63690166001977244"/>
+          <c:h val="0.22826898361842779"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -1170,7 +1186,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1188,10 +1204,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1543011811023626"/>
+          <c:x val="0.15430118110236293"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.80727006780402455"/>
-          <c:h val="0.7704993994394802"/>
+          <c:h val="0.77049939943948098"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1577,11 +1593,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="104608512"/>
-        <c:axId val="104610432"/>
+        <c:axId val="51258112"/>
+        <c:axId val="51260032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104608512"/>
+        <c:axId val="51258112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -1608,13 +1624,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104610432"/>
+        <c:crossAx val="51260032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104610432"/>
+        <c:axId val="51260032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="130"/>
@@ -1642,10 +1658,3422 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104608512"/>
+        <c:crossAx val="51258112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35808141629355267"/>
+          <c:y val="6.5515014013078923E-2"/>
+          <c:w val="0.59480200011494688"/>
+          <c:h val="0.22826898361842779"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15435627541375982"/>
+          <c:y val="4.2421752990357456E-2"/>
+          <c:w val="0.80741408619259381"/>
+          <c:h val="0.77947814824424533"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>148.02699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.67100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104.896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107.806</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110.878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>114.47799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>118.352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>82.343999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.896000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.125999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.694000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.555999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.545999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.201999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.454000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="51297664"/>
+        <c:axId val="51709440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51297664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Pulse Width (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51709440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51709440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Energy (pJ)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51297664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3665412807854978"/>
+          <c:y val="3.0441941570758732E-2"/>
+          <c:w val="0.59480200011494666"/>
+          <c:h val="0.22826898361842787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1437743056986987"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.81759574555798331"/>
+          <c:h val="0.77049939943948098"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$P$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>1.2956665000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.124441</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0348554999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0073799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95773550000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92854600000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90371199999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88487450000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87221100000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$P$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.0241085000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97116000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83999900000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71439300000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65787750000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56030600000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40928350000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32081200000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26457900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26315850000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26173550000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26031150000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25888600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.257461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$P$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="51760512"/>
+        <c:axId val="51762688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51760512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Pulse Width (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51762688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51762688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Leakage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Power </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>(W)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51760512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26085903324584503"/>
+          <c:y val="0.15896612261215726"/>
+          <c:w val="0.59480200011494688"/>
+          <c:h val="0.24592897742086894"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.81685870516185477"/>
+          <c:h val="0.68311193658932257"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Write!$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Write!$B$84:$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512KB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1MB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2MB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Write!$C$84:$C$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Write!$D$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Write!$B$84:$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512KB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1MB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2MB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Write!$D$84:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="52888704"/>
+        <c:axId val="52891008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="52888704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>STT-RAM Capacity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.31270252235419732"/>
+              <c:y val="0.91130242825607066"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52891008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52891008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" baseline="0"/>
+                  <a:t>τ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="-25000"/>
+                  <a:t>min_enery</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>(ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52888704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12865252012989883"/>
+          <c:y val="6.8676713424067018E-2"/>
+          <c:w val="0.56322033898305079"/>
+          <c:h val="0.21338478385566062"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.81685870516185477"/>
+          <c:h val="0.6831119365893229"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$21:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$21:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$21:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="52919680"/>
+        <c:axId val="52922240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="52919680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>I/O Width</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50714698162729621"/>
+              <c:y val="0.87921296296296236"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52922240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52922240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" baseline="0"/>
+                  <a:t>τ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="-25000"/>
+                  <a:t>min_enery</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>(ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52919680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39531911636045536"/>
+          <c:y val="6.4047098279381764E-2"/>
+          <c:w val="0.56322033898305079"/>
+          <c:h val="0.21338478385566073"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1438403169631044"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.80232658928533085"/>
+          <c:h val="0.64054125743116086"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Write!$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Write!$B$84:$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512KB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1MB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2MB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Write!$C$84:$C$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Write!$D$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Write!$B$84:$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512KB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1MB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2MB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Write!$D$84:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="53086464"/>
+        <c:axId val="53134080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53086464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Capacity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38920528376575897"/>
+              <c:y val="0.90534746760895168"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53134080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53134080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" baseline="0"/>
+                  <a:t>τ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="-25000"/>
+                  <a:t>min_enery</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>(ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53086464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12865252012989878"/>
+          <c:y val="6.8676713424067018E-2"/>
+          <c:w val="0.62879422859027934"/>
+          <c:h val="0.16627064726449831"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19576818349686767"/>
+          <c:y val="5.1400536792815872E-2"/>
+          <c:w val="0.7788486142740344"/>
+          <c:h val="0.64091025155990011"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$21:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$21:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16bit</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32bit</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64bit</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128bit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256bit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$21:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="53248768"/>
+        <c:axId val="53251072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="53248768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>I/O Width</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38343549583867015"/>
+              <c:y val="0.89848247534662329"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53251072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53251072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1800" baseline="0"/>
+                  <a:t>τ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="-25000"/>
+                  <a:t>min_enery</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>(ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2861740676250745E-2"/>
+              <c:y val="0.15191347000675925"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53248768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28052900852444496"/>
+          <c:y val="4.9862828265604987E-2"/>
+          <c:w val="0.71333065188136757"/>
+          <c:h val="0.18974411859202894"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.83504786539363762"/>
+          <c:h val="0.77049939943947898"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>8.2416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8356500000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9975499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6788000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4356999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3081999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2129999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1424500000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0956999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.5891500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7149000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4573499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2678000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4447000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2758499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25885</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2418500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2257</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2095499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1933999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6529999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="52914048"/>
+        <c:axId val="52970240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52914048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Pulse Width (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52970240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52970240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Area (mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52914048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35808141629355211"/>
+          <c:y val="6.5515014013078923E-2"/>
+          <c:w val="0.59480200011494799"/>
+          <c:h val="0.22826898361842743"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.83504786539363762"/>
+          <c:h val="0.7704993994394802"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>4.2935999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4748000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3056000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2552000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1927999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.1227999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3475999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72839999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60239999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56279999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53279999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52559999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51839999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50639999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="53199616"/>
+        <c:axId val="53201920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="53199616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Pulse Width (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53201920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="53201920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Read Latency (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53199616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1686,7 +5114,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:style val="33"/>
@@ -1698,10 +5126,1030 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15435627541375982"/>
-          <c:y val="4.2421752990357456E-2"/>
-          <c:w val="0.80741408619259381"/>
-          <c:h val="0.77947814824424533"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.83504786539363762"/>
+          <c:h val="0.77049939943948065"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>4.6929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.423</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.9020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.859</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.7949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2170000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="53544832"/>
+        <c:axId val="53583872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="53544832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Pulse Width (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53583872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="53583872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Latency (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53544832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14141469816273025"/>
+          <c:y val="9.3292869641295101E-2"/>
+          <c:w val="0.5364687226596675"/>
+          <c:h val="0.22826898361842773"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.83504786539363762"/>
+          <c:h val="0.77049939943948065"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In-plane STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="5">
+                  <c:v>128.35300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.379000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.355000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.680999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.391000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.287999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perpendicular STT-RAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>84.748999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.465000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.709000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.003999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.564999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.307000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.651000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.204000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.911000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.554000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="53984640"/>
+        <c:axId val="54084736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="53984640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Write Pulse Width (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54084736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54084736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="130"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Read Energy (pJ)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53984640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35808141629355256"/>
+          <c:y val="6.5515014013078923E-2"/>
+          <c:w val="0.5948020001149471"/>
+          <c:h val="0.22826898361842773"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="33"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12930796150481189"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.83504786539363762"/>
+          <c:h val="0.77049939943948098"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2087,11 +6535,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="104643968"/>
-        <c:axId val="104666624"/>
+        <c:axId val="55210752"/>
+        <c:axId val="55213440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104643968"/>
+        <c:axId val="55210752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2114,17 +6562,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42346391076115486"/>
+              <c:y val="0.90699074074074049"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104666624"/>
+        <c:crossAx val="55213440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104666624"/>
+        <c:axId val="55213440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2143,7 +6599,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Energy (pJ)</a:t>
+                  <a:t>Read Energy (pJ)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2152,7 +6608,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104643968"/>
+        <c:crossAx val="55210752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -2164,10 +6620,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3665412807854978"/>
-          <c:y val="3.0441941570758697E-2"/>
-          <c:w val="0.5948020001149471"/>
-          <c:h val="0.22826898361842773"/>
+          <c:x val="0.33863692038495308"/>
+          <c:y val="9.3292869641295101E-2"/>
+          <c:w val="0.59480200011494688"/>
+          <c:h val="0.22826898361842779"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2190,13 +6646,13 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:style val="33"/>
@@ -2208,10 +6664,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1437743056986987"/>
+          <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.81759574555798331"/>
-          <c:h val="0.7704993994394802"/>
+          <c:w val="0.83504786539363762"/>
+          <c:h val="0.77049939943948065"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2597,11 +7053,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="104738176"/>
-        <c:axId val="104744448"/>
+        <c:axId val="55537024"/>
+        <c:axId val="55744000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104738176"/>
+        <c:axId val="55537024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2628,13 +7084,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104744448"/>
+        <c:crossAx val="55744000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104744448"/>
+        <c:axId val="55744000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2670,7 +7126,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104738176"/>
+        <c:crossAx val="55537024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2682,10 +7138,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26085903324584475"/>
-          <c:y val="0.15896612261215709"/>
-          <c:w val="0.59480200011494733"/>
-          <c:h val="0.24592897742086892"/>
+          <c:x val="0.35808136482939695"/>
+          <c:y val="0.17662620297462819"/>
+          <c:w val="0.5948020001149471"/>
+          <c:h val="0.22826898361842773"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -2708,368 +7164,13 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.81685870516185477"/>
-          <c:h val="0.68311193658932212"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Write!$C$83</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Write!$B$84:$B$92</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16KB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32KB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64KB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128KB</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>256KB</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>512KB</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1MB</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2MB</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4MB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Write!$C$84:$C$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Write!$D$83</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Write!$B$84:$B$92</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16KB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32KB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64KB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128KB</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>256KB</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>512KB</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1MB</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2MB</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4MB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Write!$D$84:$D$92</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="106911232"/>
-        <c:axId val="106926080"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="106911232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>STT-RAM Macro Capacity</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.31270252235419732"/>
-              <c:y val="0.91130242825607066"/>
-            </c:manualLayout>
-          </c:layout>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="106926080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="106926080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="8"/>
-          <c:min val="2"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="el-GR" sz="1800" baseline="0"/>
-                  <a:t>τ</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="-25000"/>
-                  <a:t>min_enery</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t>(ns)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106911232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12865252012989895"/>
-          <c:y val="6.8676713424067018E-2"/>
-          <c:w val="0.56322033898305079"/>
-          <c:h val="0.21338478385566051"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:style val="33"/>
@@ -3084,7 +7185,7 @@
           <c:x val="0.12930796150481189"/>
           <c:y val="5.1400554097404488E-2"/>
           <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947821"/>
+          <c:h val="0.77049939943947943"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3470,11 +7571,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="103759232"/>
-        <c:axId val="103773696"/>
+        <c:axId val="90126976"/>
+        <c:axId val="106892288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103759232"/>
+        <c:axId val="90126976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3501,13 +7602,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103773696"/>
+        <c:crossAx val="106892288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103773696"/>
+        <c:axId val="106892288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3542,514 +7643,9 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103759232"/>
+        <c:crossAx val="90126976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35808141629355189"/>
-          <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494844"/>
-          <c:h val="0.22826898361842726"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947943"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$11:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$12:$P$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="5">
-                  <c:v>4.2935999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1936</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6379999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4748000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4172</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3056000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2552000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2167999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1927999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$11:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$13:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2.1227999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3475999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0944</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82320000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72839999999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61439999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60239999999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56279999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.53279999999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.52559999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.51839999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.51239999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.50639999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$11:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$14:$P$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.028</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="103950976"/>
-        <c:axId val="103961344"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="103950976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Pulse Width (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103961344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="103961344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Read Latency (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103950976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4090,7 +7686,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:style val="33"/>
@@ -4102,9 +7698,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
+          <c:x val="0.15079213009601009"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.83504786539363762"/>
+          <c:w val="0.81067878264564264"/>
           <c:h val="0.77049939943947976"/>
         </c:manualLayout>
       </c:layout>
@@ -4115,7 +7711,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$18</c:f>
+              <c:f>Sheet1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4133,7 +7729,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$P$17</c:f>
+              <c:f>Sheet1!$C$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4184,36 +7780,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$P$18</c:f>
+              <c:f>Sheet1!$C$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="5">
-                  <c:v>4.6929999999999996</c:v>
+                  <c:v>4.2935999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.423</c:v>
+                  <c:v>2.1936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0860000000000003</c:v>
+                  <c:v>1.6379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.976</c:v>
+                  <c:v>1.4748000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9020000000000001</c:v>
+                  <c:v>1.4172</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.859</c:v>
+                  <c:v>1.3056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.8239999999999998</c:v>
+                  <c:v>1.2552000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.798</c:v>
+                  <c:v>1.2167999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.78</c:v>
+                  <c:v>1.1927999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4225,7 +7821,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$19</c:f>
+              <c:f>Sheet1!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4258,7 +7854,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$P$17</c:f>
+              <c:f>Sheet1!$C$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4309,51 +7905,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$P$19</c:f>
+              <c:f>Sheet1!$C$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.7949999999999999</c:v>
+                  <c:v>2.1227999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.403</c:v>
+                  <c:v>1.3475999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.323</c:v>
+                  <c:v>1.0944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.24</c:v>
+                  <c:v>0.82320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3859999999999999</c:v>
+                  <c:v>0.72839999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.31</c:v>
+                  <c:v>0.61439999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4079999999999999</c:v>
+                  <c:v>0.60239999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2619999999999996</c:v>
+                  <c:v>0.56279999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2320000000000002</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2279999999999998</c:v>
+                  <c:v>0.53279999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2249999999999996</c:v>
+                  <c:v>0.52559999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2210000000000001</c:v>
+                  <c:v>0.51839999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.2170000000000005</c:v>
+                  <c:v>0.51239999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.214</c:v>
+                  <c:v>0.50639999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4365,7 +7961,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$20</c:f>
+              <c:f>Sheet1!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4389,7 +7985,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$17:$P$17</c:f>
+              <c:f>Sheet1!$C$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4440,7 +8036,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$P$20</c:f>
+              <c:f>Sheet1!$C$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4491,11 +8087,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="103987072"/>
-        <c:axId val="103997440"/>
+        <c:axId val="50902912"/>
+        <c:axId val="50905088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103987072"/>
+        <c:axId val="50902912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4522,16 +8118,16 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103997440"/>
+        <c:crossAx val="50905088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103997440"/>
+        <c:axId val="50905088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12"/>
+          <c:max val="5"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -4547,7 +8143,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Latency (ns)</a:t>
+                  <a:t>Read Latency (ns)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4556,520 +8152,10 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103987072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14141469816273003"/>
-          <c:y val="9.3292869641295004E-2"/>
-          <c:w val="0.5364687226596675"/>
-          <c:h val="0.22826898361842754"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947976"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$23:$P$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$24:$P$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="5">
-                  <c:v>128.35300000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>87.379000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>75.355000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>71.125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68.680999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>66.391000000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>64.989999999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>63.966000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>63.287999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$23:$P$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$25:$P$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>84.748999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>69.465000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61.189</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.709000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.003999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44.564999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42.423999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.307000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36.103999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.651000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35.204000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34.765000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>34.332999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.911000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$23:$P$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$26:$P$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="104051840"/>
-        <c:axId val="104053760"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="104051840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Pulse Width (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104053760"/>
+        <c:crossAx val="50902912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="104053760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="130"/>
-          <c:min val="30"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Read Energy (pJ)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104051840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="20"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5105,2068 +8191,6 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.83504786539363762"/>
-          <c:h val="0.7704993994394802"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$29:$P$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$30:$P$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="5">
-                  <c:v>148.02699999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>112.67100000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>104.896</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>103.798</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>104.58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>107.806</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110.878</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>114.47799999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>118.352</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$29:$P$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$31:$P$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>82.343999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62.896000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55.125999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.694000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46.555999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43.545999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40.950000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.201999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38.44</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37.777999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36.927999999999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>38.009</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>39.362000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40.454000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$29:$P$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$32:$P$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71.554000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="104079744"/>
-        <c:axId val="104081664"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="104079744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Pulse Width (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.42346391076115486"/>
-              <c:y val="0.90699074074074049"/>
-            </c:manualLayout>
-          </c:layout>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104081664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="104081664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="150"/>
-          <c:min val="30"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Read Energy (pJ)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104079744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="20"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.33863692038495258"/>
-          <c:y val="9.3292869641295004E-2"/>
-          <c:w val="0.59480200011494733"/>
-          <c:h val="0.22826898361842762"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947976"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$35:$P$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$36:$P$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="5">
-                  <c:v>1.2956665000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.124441</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0348554999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0073799999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.95773550000000007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92854600000000009</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.90371199999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.88487450000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.87221100000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$35:$P$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$37:$P$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.0241085000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97116000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83999900000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71439300000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65787750000000011</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56030600000000008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40928350000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.32081200000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26457900000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.26315850000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26173550000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.26031150000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.25888600000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.257461</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$35:$P$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$38:$P$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.87</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="104123776"/>
-        <c:axId val="104134144"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="104123776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Pulse Width (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104134144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="104134144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="4"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Leakage</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> Power </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>(W)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104123776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35808136482939668"/>
-          <c:y val="0.17662620297462819"/>
-          <c:w val="0.59480200011494755"/>
-          <c:h val="0.22826898361842754"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12930796150481189"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.83504786539363762"/>
-          <c:h val="0.77049939943947865"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="5">
-                  <c:v>8.2416</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.8356500000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9975499999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.6788000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.4356999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3081999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2129999999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.1424500000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.0956999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>4.5891500000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2673999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7149000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4573499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2678000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7802</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4447000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2758499999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.25885</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2418500000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2257</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2095499999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1933999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$7:$P$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.6529999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="104483456"/>
-        <c:axId val="104497920"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="104483456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Pulse Width (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104497920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="104497920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Area (mm</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="30000"/>
-                  <a:t>2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104483456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.358081416293552"/>
-          <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494821"/>
-          <c:h val="0.22826898361842732"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="33"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15079213009600986"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.81067878264564253"/>
-          <c:h val="0.77049939943947898"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In-plane STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750"/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="6"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$11:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$12:$P$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="5">
-                  <c:v>4.2935999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1936</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6379999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4748000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4172</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3056000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2552000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2167999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1927999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Perpendicular STT-RAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$11:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$13:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2.1227999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3475999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0944</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82320000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72839999999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61439999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60239999999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56279999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.53279999999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.52559999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.51839999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.51239999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.50639999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$11:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$14:$P$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.028</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="104527744"/>
-        <c:axId val="104542208"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="104527744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Write Pulse Width (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104542208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="104542208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Read Latency (ns)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104527744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35808141629355211"/>
-          <c:y val="6.5515014013078923E-2"/>
-          <c:w val="0.59480200011494799"/>
-          <c:h val="0.22826898361842743"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8080,6 +9104,217 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="2628900"/>
+          <a:ext cx="628650" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>(a)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="2628900"/>
+          <a:ext cx="628650" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>(b)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9728,10 +10963,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:D29"/>
+  <dimension ref="B4:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9851,89 +11086,86 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>0.3</v>
+        <v>6.1</v>
+      </c>
+      <c r="D21">
+        <v>7.5</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>0.4</v>
+        <v>5.5</v>
+      </c>
+      <c r="D22">
+        <v>6.9</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C23">
+        <v>4.8</v>
+      </c>
+      <c r="D23">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
         <v>3.8</v>
       </c>
+      <c r="D24">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24">
-        <v>4.3</v>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>3.1</v>
+      </c>
+      <c r="D25">
+        <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>5.6</v>
+        <v>2.6</v>
+      </c>
+      <c r="D26">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
@@ -9946,7 +11178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -9954,32 +11186,32 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>3.06</v>
@@ -10002,7 +11234,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>21.8</v>
@@ -10025,7 +11257,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>18.600000000000001</v>
@@ -10048,7 +11280,7 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>0.27600000000000002</v>
@@ -10071,7 +11303,7 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>0.29299999999999998</v>
@@ -10094,7 +11326,7 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1.01</v>
@@ -10118,4 +11350,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>